--- a/resource/cs/CSCS.xlsx
+++ b/resource/cs/CSCS.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20400" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="16170" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="FreeCandidateList" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -423,7 +424,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,7 +447,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>249360</v>
+        <v>249624</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -457,7 +458,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>249361</v>
+        <v>249625</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -468,7 +469,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>249362</v>
+        <v>249626</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -479,7 +480,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>249363</v>
+        <v>249627</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -490,7 +491,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>249364</v>
+        <v>249628</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -501,7 +502,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>249365</v>
+        <v>249629</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -512,7 +513,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>249366</v>
+        <v>249630</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -523,7 +524,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>249367</v>
+        <v>249631</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
